--- a/완료폴더/2023-05-23/결과/3-이한솔-2023-05-17.xlsx
+++ b/완료폴더/2023-05-23/결과/3-이한솔-2023-05-17.xlsx
@@ -2041,7 +2041,7 @@
       <row>115</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4905375" cy="3667125"/>
+    <ext cx="2971800" cy="2638425"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -2626,10 +2626,8 @@
           <t>충전기 용량</t>
         </is>
       </c>
-      <c r="E15" s="253" t="inlineStr">
-        <is>
-          <t>#N/AkW</t>
-        </is>
+      <c r="E15" s="253" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F15" s="239" t="n"/>
       <c r="G15" s="254" t="inlineStr">
